--- a/Pandas/hdqweight1.xlsx
+++ b/Pandas/hdqweight1.xlsx
@@ -140,10 +140,10 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.15"/>
@@ -334,7 +334,12 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="n">
+        <v>43903</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>165.5</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Pandas/hdqweight1.xlsx
+++ b/Pandas/hdqweight1.xlsx
@@ -32,11 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -103,20 +101,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -137,13 +127,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.15"/>
@@ -158,7 +148,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>43708</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -166,7 +156,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>43709</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -174,7 +164,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>43710</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -182,7 +172,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>43719</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -190,7 +180,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>43722</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -198,7 +188,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>43725</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -206,7 +196,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>43732</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -214,7 +204,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>43735</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -222,7 +212,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>43738</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -230,7 +220,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>43742</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -238,7 +228,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>43746</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -246,7 +236,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>43768</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -254,7 +244,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>43785</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -262,7 +252,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>43821</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -270,7 +260,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>43833</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -278,7 +268,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>43878</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -286,7 +276,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>43881</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -294,7 +284,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>43882</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -302,7 +292,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="1" t="n">
         <v>43884</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -310,7 +300,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="1" t="n">
         <v>43890</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -318,7 +308,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="1" t="n">
         <v>43894</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -326,7 +316,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="1" t="n">
         <v>43900</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -334,13 +324,22 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="1" t="n">
         <v>43903</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>165.5</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>43914</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
